--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristian/Dropbox/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B085B6-672F-FF46-B385-B90E2C7357DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90DD623-7876-3A47-88BC-7A38BEAE55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{14A330A3-6275-6844-B39B-681633FF9DDD}"/>
   </bookViews>
